--- a/Test results/results.xlsx
+++ b/Test results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia/OneDrive - Politecnico di Milano/papers/2020 distributed decision systems/tests/repository/Test results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EDC444-AA14-554D-AE68-AF5A501D2308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0CD4D-014A-984D-BA63-4DE34C1E9C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1060" windowWidth="39900" windowHeight="25760" activeTab="5" xr2:uid="{C926F829-F91A-A246-AC1D-5E6E00D4B87F}"/>
+    <workbookView xWindow="-10680" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="8" xr2:uid="{C926F829-F91A-A246-AC1D-5E6E00D4B87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,21 @@
     <sheet name="Experiment2_vector" sheetId="8" r:id="rId4"/>
     <sheet name="Experiment3_vector" sheetId="10" r:id="rId5"/>
     <sheet name="Incremental " sheetId="12" r:id="rId6"/>
-    <sheet name="BoxPlot number of actions" sheetId="6" r:id="rId7"/>
+    <sheet name="BoxPlot number of actions" sheetId="13" r:id="rId7"/>
     <sheet name="Comparison experiments" sheetId="4" r:id="rId8"/>
+    <sheet name="Comparison local vs global" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'BoxPlot number of actions'!$B$2:$GS$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BoxPlot number of actions'!$B$3:$GS$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'BoxPlot number of actions'!$B$4:$GS$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'BoxPlot number of actions'!$B$5:$GS$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BoxPlot number of actions'!$B$6:$GS$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'BoxPlot number of actions'!$B$2:$KO$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'BoxPlot number of actions'!$B$3:$KO$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'BoxPlot number of actions'!$B$4:$KO$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'BoxPlot number of actions'!$B$5:$KO$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'BoxPlot number of actions'!$B$6:$KO$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'BoxPlot number of actions'!$B$2:$CW$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'BoxPlot number of actions'!$B$3:$CW$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'BoxPlot number of actions'!$B$4:$CW$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'BoxPlot number of actions'!$B$5:$CW$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'BoxPlot number of actions'!$B$6:$CW$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>batch</t>
   </si>
@@ -93,24 +99,6 @@
     <t>average per number of nodes</t>
   </si>
   <si>
-    <t xml:space="preserve">actions for initial convergence </t>
-  </si>
-  <si>
-    <t>injected node</t>
-  </si>
-  <si>
-    <t>1st round</t>
-  </si>
-  <si>
-    <t>2nd round</t>
-  </si>
-  <si>
-    <t>3rd round</t>
-  </si>
-  <si>
-    <t>4th round</t>
-  </si>
-  <si>
     <t>avg</t>
   </si>
   <si>
@@ -120,10 +108,61 @@
     <t>Number of data nodes</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>exp 3</t>
   </si>
   <si>
-    <t>Variance</t>
+    <t>local 1</t>
+  </si>
+  <si>
+    <t>local 2</t>
+  </si>
+  <si>
+    <t>Local 3</t>
+  </si>
+  <si>
+    <t>Global pf=.33</t>
+  </si>
+  <si>
+    <t>penalty factor .33</t>
+  </si>
+  <si>
+    <t>avg movment</t>
+  </si>
+  <si>
+    <t>avg std movement</t>
+  </si>
+  <si>
+    <t>Global decision</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>batch 1</t>
+  </si>
+  <si>
+    <t>batch 2</t>
+  </si>
+  <si>
+    <t>std dev</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>batch 3</t>
+  </si>
+  <si>
+    <t>random actions</t>
+  </si>
+  <si>
+    <t>c_id 1 count</t>
+  </si>
+  <si>
+    <t>actions for initial convergence</t>
+  </si>
+  <si>
+    <t>Local decision:</t>
   </si>
 </sst>
 </file>
@@ -180,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -188,17 +227,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +520,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.6</c:v>
@@ -1033,7 +1141,7 @@
                   <c:v>17.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.600000000000001</c:v>
@@ -1728,15 +1836,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Experiment 1</c:v>
+            <c:v>global</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1747,11 +1855,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1759,7 +1867,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Incremental '!$I$5:$I$14</c:f>
+              <c:f>'Incremental '!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1803,34 +1911,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,20 +1946,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-641E-874D-AB65-97414D8B3D51}"/>
+              <c16:uniqueId val="{00000004-7082-CB4D-A26E-015DDC803D78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Experiment 2</c:v>
+            <c:v>global2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1862,11 +1970,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1874,7 +1982,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Incremental '!$I$5:$I$14</c:f>
+              <c:f>'Incremental '!$A$5:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1913,39 +2021,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Incremental '!$D$5:$D$14</c:f>
+              <c:f>'Incremental '!$F$5:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,20 +2061,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-641E-874D-AB65-97414D8B3D51}"/>
+              <c16:uniqueId val="{00000005-7082-CB4D-A26E-015DDC803D78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Experiment 3</c:v>
+            <c:v>global3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1977,58 +2085,19 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Incremental '!$I$5:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Incremental '!$E$5:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2036,31 +2105,31 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,20 +2137,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-641E-874D-AB65-97414D8B3D51}"/>
+              <c16:uniqueId val="{00000000-E60C-A543-919F-2D5D5DACC400}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Experiment 4</c:v>
+            <c:v>avg</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2092,11 +2161,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2104,39 +2173,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Incremental '!$F$5:$F$14</c:f>
+              <c:f>'Incremental '!$L$5:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>29.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>15.333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,7 +2213,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E6E-FE40-98DB-B5FB3AC4935C}"/>
+              <c16:uniqueId val="{00000002-E60C-A543-919F-2D5D5DACC400}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2501,6 +2570,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21327621037166275"/>
+          <c:y val="1.4519740395534714E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2600,16 +2677,16 @@
                   <c:v>8.4666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0399999999999991</c:v>
+                  <c:v>17.6666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.706666666666671</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.589999999999996</c:v>
+                  <c:v>41.066666699999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3141,6 +3218,1095 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average number of actions: global</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs local decision</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison local vs global'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Global decision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Comparison local vs global'!$AA$2:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison local vs global'!$U$38:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0D23-CD42-833D-C41A92B7639B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Local Decision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison local vs global'!$Z$11:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.587500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE1D-2D4B-893B-4ED9BD8438C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="552723840"/>
+        <c:axId val="552725520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="552723840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of full nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552725520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552725520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of actions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552723840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Std deviation of number of actions: global vs local decision</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1972539670516823"/>
+          <c:y val="1.4174821684649654E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison local vs global'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Global decision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Comparison local vs global'!$AA$2:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison local vs global'!$V$38:$V$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0816659994661331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4384682042344297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8158312446506146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2842983946603095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9640815125416591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E32D-4F43-B82C-7034A025B6E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Local decision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison local vs global'!$AA$11:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6787532701676051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.281556788193761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.171104670267828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.902906443315221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C65-9E4C-81CE-FE673D5ECB87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="413065088"/>
+        <c:axId val="433138784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413065088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of full nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433138784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="433138784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Std deviation </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> number of actions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413065088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -3195,6 +4361,236 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>Number of adaptation actions per full nodes</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8C8F7DD-DCFF-9D4F-9515-C7FF39BF1C07}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>3 full nodes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A967C7D4-C1E4-F546-8E18-C8C98E412DBF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>5 full nodes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DEF6A295-503C-EC4B-9994-D675E8390756}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>10 full nodes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E608221F-6773-BB4E-82F7-3E8ED954C677}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>15 full nodes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8E714CF9-99E8-2D4B-8238-2F6DB61D676D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>20 full nodes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="180"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>number of adaptation actions</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1600"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>number of adaptation actions</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="l" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1600"/>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Number of adaptation actions per full nodes 1- exp</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Number of adaptation actions per full nodes 1- exp</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -3571,6 +4967,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5596,6 +7112,521 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6098,18 +8129,1024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -6139,14 +9176,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6179,27 +9216,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>162169</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1950512</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>283306</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>97692</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1862588</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>110029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E751A638-5F40-F144-835F-3F18E59C93D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD3DDF-D351-6C4E-BF16-E08A4E866393}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6235,10 +9274,10 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
+            <xdr:cNvPr id="2" name="Chart 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D7CCCA-4A31-D241-B1C4-D43298F0D170}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767AB812-C7A4-4541-874C-2584C47B8EE5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6296,6 +9335,84 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>62229</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>24129</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA9FC4A-61A0-0542-8E08-1209CB3F80B2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15474949" y="2889250"/>
+              <a:ext cx="12527280" cy="7498079"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6303,16 +9420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>160048</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109248</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6332,6 +9449,87 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586619</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>175986</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0013C3-3B7C-0F43-8628-18055A770CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>798286</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15119</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>41729</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C202801-2BAB-4C43-8990-6152A57507E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6647,7 +9845,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -6677,7 +9875,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -6712,15 +9910,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DA895A-C98E-344A-B174-E2D1AB6C3390}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6746,7 +9944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>14</v>
       </c>
@@ -6764,8 +9962,12 @@
         <f>AVERAGE(U2,U9,U16,U23,U30)</f>
         <v>8.4666666666666668</v>
       </c>
+      <c r="Y2" s="6">
+        <f>STDEV(A2:D2)</f>
+        <v>12.897028081435401</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6775,22 +9977,25 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="U3">
         <f>AVERAGE(A3:E3)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V6" si="0">AVERAGE(U3,U10,U17,U24,U31)</f>
-        <v>7.0399999999999991</v>
+        <v>4</v>
+      </c>
+      <c r="V3" s="4">
+        <v>17.6666667</v>
+      </c>
+      <c r="W3" s="4">
+        <v>8.4666666700000004</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>STDEV(A3:T3)</f>
+        <v>1.8257418583505538</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>47</v>
       </c>
@@ -6825,12 +10030,18 @@
         <f>AVERAGE(A4:J4)</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>21.8</v>
+      <c r="V4" s="4">
+        <v>4</v>
+      </c>
+      <c r="W4" s="4">
+        <v>6.96</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" ref="Y4:Y6" si="0">STDEV(A4:T4)</f>
+        <v>11.946175585144859</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35</v>
       </c>
@@ -6880,12 +10091,18 @@
         <f>AVERAGE(A5:O5)</f>
         <v>41.06666666666667</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="W5" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="Y5" s="6">
         <f t="shared" si="0"/>
-        <v>38.706666666666671</v>
+        <v>14.270182032409233</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -6950,12 +10167,26 @@
         <f t="shared" ref="U6:U34" si="1">AVERAGE(A6:T6)</f>
         <v>51.15</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
+        <v>41.066666699999999</v>
+      </c>
+      <c r="W6" s="4">
+        <v>38.7066667</v>
+      </c>
+      <c r="Y6" s="6">
         <f t="shared" si="0"/>
-        <v>55.589999999999996</v>
+        <v>14.169184502775181</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V7" s="4">
+        <v>51.15</v>
+      </c>
+      <c r="W7" s="4">
+        <v>55.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -6975,7 +10206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6990,7 +10221,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -7011,7 +10242,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>19</v>
       </c>
@@ -7047,7 +10278,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -7098,7 +10329,7 @@
         <v>31.066666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>59</v>
       </c>
@@ -7164,7 +10395,7 @@
         <v>62.15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -7184,7 +10415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7802,8 +11033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92161693-A022-E342-8936-63164AAE629F}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10016,7 +13247,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11096,338 +14327,433 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3394E60-943E-E542-8FA6-D3F37EEE0CE1}">
-  <dimension ref="B4:I18"/>
+  <dimension ref="A3:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScaleNormal="313" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="15" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(C5,F5,I5)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L14" si="0">AVERAGE(C6,F6,I6)</f>
+        <v>17</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>25.666666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>71</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>44.333333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <f>AVERAGE(C5:E5)</f>
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>7</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G15" si="0">AVERAGE(C6:E6)</f>
-        <v>15.666666666666666</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5">
-        <v>61</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
-      </c>
-      <c r="I7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>37.333333333333336</v>
-      </c>
-      <c r="I8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="I10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5">
-        <v>36</v>
-      </c>
-      <c r="F11" s="5">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="I11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5">
-        <v>29</v>
-      </c>
-      <c r="F14" s="5">
-        <v>31</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>22.666666666666668</v>
-      </c>
-      <c r="I14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>16</v>
       </c>
       <c r="C15">
         <f>AVERAGE(C5:C14)</f>
-        <v>20.8</v>
-      </c>
-      <c r="D15">
-        <f>AVERAGE(D5:D14)</f>
-        <v>22.2</v>
-      </c>
-      <c r="E15">
-        <f>AVERAGE(E5:E14)</f>
-        <v>20.3</v>
+        <v>30.1</v>
       </c>
       <c r="F15">
         <f>AVERAGE(F5:F14)</f>
-        <v>15.9</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>21.099999999999998</v>
+        <v>22.6</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(I5:I14)</f>
+        <v>23.7</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16">
+        <f>STDEV(C5:C15)</f>
+        <v>7.0064256222413279</v>
+      </c>
+      <c r="F16">
+        <f>STDEV(F5:F15)</f>
+        <v>14.698299221338504</v>
+      </c>
+      <c r="I16">
+        <f>STDEV(I5:I15)</f>
+        <v>23.916730545791584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
         <f>_xlfn.VAR.P(C5:C14)</f>
-        <v>192.96</v>
-      </c>
-      <c r="D16">
-        <f>_xlfn.VAR.P(D5:D14)</f>
-        <v>244.56</v>
-      </c>
-      <c r="E16">
-        <f>_xlfn.VAR.P(E5:E14)</f>
-        <v>284.81</v>
-      </c>
-      <c r="F16">
+        <v>49.09</v>
+      </c>
+      <c r="F17">
         <f>_xlfn.VAR.P(F5:F14)</f>
-        <v>50.89</v>
+        <v>216.04</v>
+      </c>
+      <c r="I17">
+        <f>_xlfn.VAR.P(I5:I14)</f>
+        <v>572.01</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>7</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -11437,11 +14763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E11D8A6-31C7-0344-87FF-51676EB1DD80}">
-  <dimension ref="A1:GS21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9217709-C424-3B44-9414-8FDDFF87E183}">
+  <dimension ref="A1:KO21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP54" sqref="AP54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11451,15 +14777,18 @@
     <col min="101" max="101" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="CX1" t="s">
         <v>4</v>
       </c>
+      <c r="GT1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:201" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A2" cm="1">
         <f t="array" ref="A2:A6">Constants!A14:A18</f>
         <v>3</v>
@@ -12264,8 +15593,408 @@
         <f>IF(Experiment2!T30="",NA(),Experiment2!T30)</f>
         <v>#N/A</v>
       </c>
+      <c r="GT2">
+        <f>IF(Experiment3_vector!A2="",NA(),Experiment3_vector!A2)</f>
+        <v>0</v>
+      </c>
+      <c r="GU2">
+        <f>IF(Experiment3_vector!B2="",NA(),Experiment3_vector!B2)</f>
+        <v>0</v>
+      </c>
+      <c r="GV2">
+        <f>IF(Experiment3_vector!C2="",NA(),Experiment3_vector!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="GW2" t="e">
+        <f>IF(Experiment3_vector!D2="",NA(),Experiment3_vector!D2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="GX2" t="e">
+        <f>IF(Experiment3_vector!E2="",NA(),Experiment3_vector!E2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="GY2" t="e">
+        <f>IF(Experiment3_vector!F2="",NA(),Experiment3_vector!F2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="GZ2" t="e">
+        <f>IF(Experiment3_vector!G2="",NA(),Experiment3_vector!G2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HA2" t="e">
+        <f>IF(Experiment3_vector!H2="",NA(),Experiment3_vector!H2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HB2" t="e">
+        <f>IF(Experiment3_vector!I2="",NA(),Experiment3_vector!I2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HC2" t="e">
+        <f>IF(Experiment3_vector!J2="",NA(),Experiment3_vector!J2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HD2" t="e">
+        <f>IF(Experiment3_vector!K2="",NA(),Experiment3_vector!K2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HE2" t="e">
+        <f>IF(Experiment3_vector!L2="",NA(),Experiment3_vector!L2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HF2" t="e">
+        <f>IF(Experiment3_vector!M2="",NA(),Experiment3_vector!M2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HG2" t="e">
+        <f>IF(Experiment3_vector!N2="",NA(),Experiment3_vector!N2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HH2" t="e">
+        <f>IF(Experiment3_vector!O2="",NA(),Experiment3_vector!O2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HI2" t="e">
+        <f>IF(Experiment3_vector!P2="",NA(),Experiment3_vector!P2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HJ2" t="e">
+        <f>IF(Experiment3_vector!Q2="",NA(),Experiment3_vector!Q2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HK2" t="e">
+        <f>IF(Experiment3_vector!R2="",NA(),Experiment3_vector!R2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HL2" t="e">
+        <f>IF(Experiment3_vector!S2="",NA(),Experiment3_vector!S2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HM2" t="e">
+        <f>IF(Experiment3_vector!T2="",NA(),Experiment3_vector!T2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HN2">
+        <f>IF(Experiment3_vector!A9="",NA(),Experiment3_vector!A9)</f>
+        <v>0</v>
+      </c>
+      <c r="HO2">
+        <f>IF(Experiment3_vector!B9="",NA(),Experiment3_vector!B9)</f>
+        <v>0</v>
+      </c>
+      <c r="HP2">
+        <f>IF(Experiment3_vector!C9="",NA(),Experiment3_vector!C9)</f>
+        <v>0</v>
+      </c>
+      <c r="HQ2" t="e">
+        <f>IF(Experiment3_vector!D9="",NA(),Experiment3_vector!D9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HR2" t="e">
+        <f>IF(Experiment3_vector!E9="",NA(),Experiment3_vector!E9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HS2" t="e">
+        <f>IF(Experiment3_vector!F9="",NA(),Experiment3_vector!F9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HT2" t="e">
+        <f>IF(Experiment3_vector!G9="",NA(),Experiment3_vector!G9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HU2" t="e">
+        <f>IF(Experiment3_vector!H9="",NA(),Experiment3_vector!H9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HV2" t="e">
+        <f>IF(Experiment3_vector!I9="",NA(),Experiment3_vector!I9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HW2" t="e">
+        <f>IF(Experiment3_vector!J9="",NA(),Experiment3_vector!J9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HX2" t="e">
+        <f>IF(Experiment3_vector!K9="",NA(),Experiment3_vector!K9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HY2" t="e">
+        <f>IF(Experiment3_vector!L9="",NA(),Experiment3_vector!L9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HZ2" t="e">
+        <f>IF(Experiment3_vector!M9="",NA(),Experiment3_vector!M9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IA2" t="e">
+        <f>IF(Experiment3_vector!N9="",NA(),Experiment3_vector!N9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IB2" t="e">
+        <f>IF(Experiment3_vector!O9="",NA(),Experiment3_vector!O9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IC2" t="e">
+        <f>IF(Experiment3_vector!P9="",NA(),Experiment3_vector!P9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ID2" t="e">
+        <f>IF(Experiment3_vector!Q9="",NA(),Experiment3_vector!Q9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IE2" t="e">
+        <f>IF(Experiment3_vector!R9="",NA(),Experiment3_vector!R9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IF2" t="e">
+        <f>IF(Experiment3_vector!S9="",NA(),Experiment3_vector!S9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IG2" t="e">
+        <f>IF(Experiment3_vector!T9="",NA(),Experiment3_vector!T9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IH2">
+        <f>IF(Experiment3_vector!A16="",NA(),Experiment3_vector!A16)</f>
+        <v>0</v>
+      </c>
+      <c r="II2">
+        <f>IF(Experiment3_vector!B16="",NA(),Experiment3_vector!B16)</f>
+        <v>0</v>
+      </c>
+      <c r="IJ2">
+        <f>IF(Experiment3_vector!C16="",NA(),Experiment3_vector!C16)</f>
+        <v>0</v>
+      </c>
+      <c r="IK2" t="e">
+        <f>IF(Experiment3_vector!D16="",NA(),Experiment3_vector!D16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IL2" t="e">
+        <f>IF(Experiment3_vector!E16="",NA(),Experiment3_vector!E16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IM2" t="e">
+        <f>IF(Experiment3_vector!F16="",NA(),Experiment3_vector!F16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IN2" t="e">
+        <f>IF(Experiment3_vector!G16="",NA(),Experiment3_vector!G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IO2" t="e">
+        <f>IF(Experiment3_vector!H16="",NA(),Experiment3_vector!H16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IP2" t="e">
+        <f>IF(Experiment3_vector!I16="",NA(),Experiment3_vector!I16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IQ2" t="e">
+        <f>IF(Experiment3_vector!J16="",NA(),Experiment3_vector!J16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IR2" t="e">
+        <f>IF(Experiment3_vector!K16="",NA(),Experiment3_vector!K16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IS2" t="e">
+        <f>IF(Experiment3_vector!L16="",NA(),Experiment3_vector!L16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IT2" t="e">
+        <f>IF(Experiment3_vector!M16="",NA(),Experiment3_vector!M16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IU2" t="e">
+        <f>IF(Experiment3_vector!N16="",NA(),Experiment3_vector!N16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IV2" t="e">
+        <f>IF(Experiment3_vector!O16="",NA(),Experiment3_vector!O16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IW2" t="e">
+        <f>IF(Experiment3_vector!P16="",NA(),Experiment3_vector!P16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IX2" t="e">
+        <f>IF(Experiment3_vector!Q16="",NA(),Experiment3_vector!Q16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IY2" t="e">
+        <f>IF(Experiment3_vector!R16="",NA(),Experiment3_vector!R16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IZ2" t="e">
+        <f>IF(Experiment3_vector!S16="",NA(),Experiment3_vector!S16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JA2" t="e">
+        <f>IF(Experiment3_vector!T16="",NA(),Experiment3_vector!T16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JB2">
+        <f>IF(Experiment3_vector!A23="",NA(),Experiment3_vector!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="JC2">
+        <f>IF(Experiment3_vector!B23="",NA(),Experiment3_vector!B23)</f>
+        <v>0</v>
+      </c>
+      <c r="JD2">
+        <f>IF(Experiment3_vector!C23="",NA(),Experiment3_vector!C23)</f>
+        <v>0</v>
+      </c>
+      <c r="JE2" t="e">
+        <f>IF(Experiment3_vector!D23="",NA(),Experiment3_vector!D23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JF2" t="e">
+        <f>IF(Experiment3_vector!E23="",NA(),Experiment3_vector!E23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JG2" t="e">
+        <f>IF(Experiment3_vector!F23="",NA(),Experiment3_vector!F23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JH2" t="e">
+        <f>IF(Experiment3_vector!G23="",NA(),Experiment3_vector!G23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JI2" t="e">
+        <f>IF(Experiment3_vector!H23="",NA(),Experiment3_vector!H23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JJ2" t="e">
+        <f>IF(Experiment3_vector!I23="",NA(),Experiment3_vector!I23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JK2" t="e">
+        <f>IF(Experiment3_vector!J23="",NA(),Experiment3_vector!J23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JL2" t="e">
+        <f>IF(Experiment3_vector!K23="",NA(),Experiment3_vector!K23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JM2" t="e">
+        <f>IF(Experiment3_vector!L23="",NA(),Experiment3_vector!L23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JN2" t="e">
+        <f>IF(Experiment3_vector!M23="",NA(),Experiment3_vector!M23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JO2" t="e">
+        <f>IF(Experiment3_vector!N23="",NA(),Experiment3_vector!N23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JP2" t="e">
+        <f>IF(Experiment3_vector!O23="",NA(),Experiment3_vector!O23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JQ2" t="e">
+        <f>IF(Experiment3_vector!P23="",NA(),Experiment3_vector!P23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JR2" t="e">
+        <f>IF(Experiment3_vector!Q23="",NA(),Experiment3_vector!Q23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JS2" t="e">
+        <f>IF(Experiment3_vector!R23="",NA(),Experiment3_vector!R23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JT2" t="e">
+        <f>IF(Experiment3_vector!S23="",NA(),Experiment3_vector!S23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JU2" t="e">
+        <f>IF(Experiment3_vector!T23="",NA(),Experiment3_vector!T23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JV2">
+        <f>IF(Experiment3_vector!A30="",NA(),Experiment3_vector!A30)</f>
+        <v>0</v>
+      </c>
+      <c r="JW2">
+        <f>IF(Experiment3_vector!B30="",NA(),Experiment3_vector!B30)</f>
+        <v>0</v>
+      </c>
+      <c r="JX2">
+        <f>IF(Experiment3_vector!C30="",NA(),Experiment3_vector!C30)</f>
+        <v>0</v>
+      </c>
+      <c r="JY2" t="e">
+        <f>IF(Experiment3_vector!D30="",NA(),Experiment3_vector!D30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JZ2" t="e">
+        <f>IF(Experiment3_vector!E30="",NA(),Experiment3_vector!E30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KA2" t="e">
+        <f>IF(Experiment3_vector!F30="",NA(),Experiment3_vector!F30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KB2" t="e">
+        <f>IF(Experiment3_vector!G30="",NA(),Experiment3_vector!G30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KC2" t="e">
+        <f>IF(Experiment3_vector!H30="",NA(),Experiment3_vector!H30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KD2" t="e">
+        <f>IF(Experiment3_vector!I30="",NA(),Experiment3_vector!I30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KE2" t="e">
+        <f>IF(Experiment3_vector!J30="",NA(),Experiment3_vector!J30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KF2" t="e">
+        <f>IF(Experiment3_vector!K30="",NA(),Experiment3_vector!K30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KG2" t="e">
+        <f>IF(Experiment3_vector!L30="",NA(),Experiment3_vector!L30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KH2" t="e">
+        <f>IF(Experiment3_vector!M30="",NA(),Experiment3_vector!M30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KI2" t="e">
+        <f>IF(Experiment3_vector!N30="",NA(),Experiment3_vector!N30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KJ2" t="e">
+        <f>IF(Experiment3_vector!O30="",NA(),Experiment3_vector!O30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KK2" t="e">
+        <f>IF(Experiment3_vector!P30="",NA(),Experiment3_vector!P30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KL2" t="e">
+        <f>IF(Experiment3_vector!Q30="",NA(),Experiment3_vector!Q30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KM2" t="e">
+        <f>IF(Experiment3_vector!R30="",NA(),Experiment3_vector!R30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KN2" t="e">
+        <f>IF(Experiment3_vector!S30="",NA(),Experiment3_vector!S30)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KO2" t="e">
+        <f>IF(Experiment3_vector!T30="",NA(),Experiment3_vector!T30)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="3" spans="1:201" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -12281,9 +16010,9 @@
         <f>IF(Experiment1!C3="",NA(),Experiment1!C3)</f>
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f>IF(Experiment1!D3="",NA(),Experiment1!D3)</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="F3">
         <f>IF(Experiment1!E3="",NA(),Experiment1!E3)</f>
@@ -13069,8 +16798,408 @@
         <f>IF(Experiment2!T31="",NA(),Experiment2!T31)</f>
         <v>#N/A</v>
       </c>
+      <c r="GT3">
+        <f>IF(Experiment3_vector!A3="",NA(),Experiment3_vector!A3)</f>
+        <v>18</v>
+      </c>
+      <c r="GU3">
+        <f>IF(Experiment3_vector!B3="",NA(),Experiment3_vector!B3)</f>
+        <v>19</v>
+      </c>
+      <c r="GV3">
+        <f>IF(Experiment3_vector!C3="",NA(),Experiment3_vector!C3)</f>
+        <v>23</v>
+      </c>
+      <c r="GW3">
+        <f>IF(Experiment3_vector!D3="",NA(),Experiment3_vector!D3)</f>
+        <v>15</v>
+      </c>
+      <c r="GX3">
+        <f>IF(Experiment3_vector!E3="",NA(),Experiment3_vector!E3)</f>
+        <v>28</v>
+      </c>
+      <c r="GY3" t="e">
+        <f>IF(Experiment3_vector!F3="",NA(),Experiment3_vector!F3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="GZ3" t="e">
+        <f>IF(Experiment3_vector!G3="",NA(),Experiment3_vector!G3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HA3" t="e">
+        <f>IF(Experiment3_vector!H3="",NA(),Experiment3_vector!H3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HB3" t="e">
+        <f>IF(Experiment3_vector!I3="",NA(),Experiment3_vector!I3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HC3" t="e">
+        <f>IF(Experiment3_vector!J3="",NA(),Experiment3_vector!J3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HD3" t="e">
+        <f>IF(Experiment3_vector!K3="",NA(),Experiment3_vector!K3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HE3" t="e">
+        <f>IF(Experiment3_vector!L3="",NA(),Experiment3_vector!L3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HF3" t="e">
+        <f>IF(Experiment3_vector!M3="",NA(),Experiment3_vector!M3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HG3" t="e">
+        <f>IF(Experiment3_vector!N3="",NA(),Experiment3_vector!N3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HH3" t="e">
+        <f>IF(Experiment3_vector!O3="",NA(),Experiment3_vector!O3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HI3" t="e">
+        <f>IF(Experiment3_vector!P3="",NA(),Experiment3_vector!P3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HJ3" t="e">
+        <f>IF(Experiment3_vector!Q3="",NA(),Experiment3_vector!Q3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HK3" t="e">
+        <f>IF(Experiment3_vector!R3="",NA(),Experiment3_vector!R3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HL3" t="e">
+        <f>IF(Experiment3_vector!S3="",NA(),Experiment3_vector!S3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HM3" t="e">
+        <f>IF(Experiment3_vector!T3="",NA(),Experiment3_vector!T3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HN3">
+        <f>IF(Experiment3_vector!A10="",NA(),Experiment3_vector!A10)</f>
+        <v>24</v>
+      </c>
+      <c r="HO3">
+        <f>IF(Experiment3_vector!B10="",NA(),Experiment3_vector!B10)</f>
+        <v>24</v>
+      </c>
+      <c r="HP3">
+        <f>IF(Experiment3_vector!C10="",NA(),Experiment3_vector!C10)</f>
+        <v>9</v>
+      </c>
+      <c r="HQ3">
+        <f>IF(Experiment3_vector!D10="",NA(),Experiment3_vector!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="HR3">
+        <f>IF(Experiment3_vector!E10="",NA(),Experiment3_vector!E10)</f>
+        <v>43</v>
+      </c>
+      <c r="HS3" t="e">
+        <f>IF(Experiment3_vector!F10="",NA(),Experiment3_vector!F10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HT3" t="e">
+        <f>IF(Experiment3_vector!G10="",NA(),Experiment3_vector!G10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HU3" t="e">
+        <f>IF(Experiment3_vector!H10="",NA(),Experiment3_vector!H10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HV3" t="e">
+        <f>IF(Experiment3_vector!I10="",NA(),Experiment3_vector!I10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HW3" t="e">
+        <f>IF(Experiment3_vector!J10="",NA(),Experiment3_vector!J10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HX3" t="e">
+        <f>IF(Experiment3_vector!K10="",NA(),Experiment3_vector!K10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HY3" t="e">
+        <f>IF(Experiment3_vector!L10="",NA(),Experiment3_vector!L10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HZ3" t="e">
+        <f>IF(Experiment3_vector!M10="",NA(),Experiment3_vector!M10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IA3" t="e">
+        <f>IF(Experiment3_vector!N10="",NA(),Experiment3_vector!N10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IB3" t="e">
+        <f>IF(Experiment3_vector!O10="",NA(),Experiment3_vector!O10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IC3" t="e">
+        <f>IF(Experiment3_vector!P10="",NA(),Experiment3_vector!P10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ID3" t="e">
+        <f>IF(Experiment3_vector!Q10="",NA(),Experiment3_vector!Q10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IE3" t="e">
+        <f>IF(Experiment3_vector!R10="",NA(),Experiment3_vector!R10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IF3" t="e">
+        <f>IF(Experiment3_vector!S10="",NA(),Experiment3_vector!S10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IG3" t="e">
+        <f>IF(Experiment3_vector!T10="",NA(),Experiment3_vector!T10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IH3">
+        <f>IF(Experiment3_vector!A17="",NA(),Experiment3_vector!A17)</f>
+        <v>5</v>
+      </c>
+      <c r="II3">
+        <f>IF(Experiment3_vector!B17="",NA(),Experiment3_vector!B17)</f>
+        <v>8</v>
+      </c>
+      <c r="IJ3">
+        <f>IF(Experiment3_vector!C17="",NA(),Experiment3_vector!C17)</f>
+        <v>10</v>
+      </c>
+      <c r="IK3">
+        <f>IF(Experiment3_vector!D17="",NA(),Experiment3_vector!D17)</f>
+        <v>6</v>
+      </c>
+      <c r="IL3">
+        <f>IF(Experiment3_vector!E17="",NA(),Experiment3_vector!E17)</f>
+        <v>17</v>
+      </c>
+      <c r="IM3" t="e">
+        <f>IF(Experiment3_vector!F17="",NA(),Experiment3_vector!F17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IN3" t="e">
+        <f>IF(Experiment3_vector!G17="",NA(),Experiment3_vector!G17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IO3" t="e">
+        <f>IF(Experiment3_vector!H17="",NA(),Experiment3_vector!H17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IP3" t="e">
+        <f>IF(Experiment3_vector!I17="",NA(),Experiment3_vector!I17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IQ3" t="e">
+        <f>IF(Experiment3_vector!J17="",NA(),Experiment3_vector!J17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IR3" t="e">
+        <f>IF(Experiment3_vector!K17="",NA(),Experiment3_vector!K17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IS3" t="e">
+        <f>IF(Experiment3_vector!L17="",NA(),Experiment3_vector!L17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IT3" t="e">
+        <f>IF(Experiment3_vector!M17="",NA(),Experiment3_vector!M17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IU3" t="e">
+        <f>IF(Experiment3_vector!N17="",NA(),Experiment3_vector!N17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IV3" t="e">
+        <f>IF(Experiment3_vector!O17="",NA(),Experiment3_vector!O17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IW3" t="e">
+        <f>IF(Experiment3_vector!P17="",NA(),Experiment3_vector!P17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IX3" t="e">
+        <f>IF(Experiment3_vector!Q17="",NA(),Experiment3_vector!Q17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IY3" t="e">
+        <f>IF(Experiment3_vector!R17="",NA(),Experiment3_vector!R17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IZ3" t="e">
+        <f>IF(Experiment3_vector!S17="",NA(),Experiment3_vector!S17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JA3" t="e">
+        <f>IF(Experiment3_vector!T17="",NA(),Experiment3_vector!T17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JB3">
+        <f>IF(Experiment3_vector!A24="",NA(),Experiment3_vector!A24)</f>
+        <v>1</v>
+      </c>
+      <c r="JC3">
+        <f>IF(Experiment3_vector!B24="",NA(),Experiment3_vector!B24)</f>
+        <v>0</v>
+      </c>
+      <c r="JD3">
+        <f>IF(Experiment3_vector!C24="",NA(),Experiment3_vector!C24)</f>
+        <v>39</v>
+      </c>
+      <c r="JE3">
+        <f>IF(Experiment3_vector!D24="",NA(),Experiment3_vector!D24)</f>
+        <v>34</v>
+      </c>
+      <c r="JF3">
+        <f>IF(Experiment3_vector!E24="",NA(),Experiment3_vector!E24)</f>
+        <v>16</v>
+      </c>
+      <c r="JG3" t="e">
+        <f>IF(Experiment3_vector!F24="",NA(),Experiment3_vector!F24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JH3" t="e">
+        <f>IF(Experiment3_vector!G24="",NA(),Experiment3_vector!G24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JI3" t="e">
+        <f>IF(Experiment3_vector!H24="",NA(),Experiment3_vector!H24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JJ3" t="e">
+        <f>IF(Experiment3_vector!I24="",NA(),Experiment3_vector!I24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JK3" t="e">
+        <f>IF(Experiment3_vector!J24="",NA(),Experiment3_vector!J24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JL3" t="e">
+        <f>IF(Experiment3_vector!K24="",NA(),Experiment3_vector!K24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JM3" t="e">
+        <f>IF(Experiment3_vector!L24="",NA(),Experiment3_vector!L24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JN3" t="e">
+        <f>IF(Experiment3_vector!M24="",NA(),Experiment3_vector!M24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JO3" t="e">
+        <f>IF(Experiment3_vector!N24="",NA(),Experiment3_vector!N24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JP3" t="e">
+        <f>IF(Experiment3_vector!O24="",NA(),Experiment3_vector!O24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JQ3" t="e">
+        <f>IF(Experiment3_vector!P24="",NA(),Experiment3_vector!P24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JR3" t="e">
+        <f>IF(Experiment3_vector!Q24="",NA(),Experiment3_vector!Q24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JS3" t="e">
+        <f>IF(Experiment3_vector!R24="",NA(),Experiment3_vector!R24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JT3" t="e">
+        <f>IF(Experiment3_vector!S24="",NA(),Experiment3_vector!S24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JU3" t="e">
+        <f>IF(Experiment3_vector!T24="",NA(),Experiment3_vector!T24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JV3">
+        <f>IF(Experiment3_vector!A31="",NA(),Experiment3_vector!A31)</f>
+        <v>1</v>
+      </c>
+      <c r="JW3">
+        <f>IF(Experiment3_vector!B31="",NA(),Experiment3_vector!B31)</f>
+        <v>0</v>
+      </c>
+      <c r="JX3">
+        <f>IF(Experiment3_vector!C31="",NA(),Experiment3_vector!C31)</f>
+        <v>1</v>
+      </c>
+      <c r="JY3">
+        <f>IF(Experiment3_vector!D31="",NA(),Experiment3_vector!D31)</f>
+        <v>0</v>
+      </c>
+      <c r="JZ3">
+        <f>IF(Experiment3_vector!E31="",NA(),Experiment3_vector!E31)</f>
+        <v>1</v>
+      </c>
+      <c r="KA3" t="e">
+        <f>IF(Experiment3_vector!F31="",NA(),Experiment3_vector!F31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KB3" t="e">
+        <f>IF(Experiment3_vector!G31="",NA(),Experiment3_vector!G31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KC3" t="e">
+        <f>IF(Experiment3_vector!H31="",NA(),Experiment3_vector!H31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KD3" t="e">
+        <f>IF(Experiment3_vector!I31="",NA(),Experiment3_vector!I31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KE3" t="e">
+        <f>IF(Experiment3_vector!J31="",NA(),Experiment3_vector!J31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KF3" t="e">
+        <f>IF(Experiment3_vector!K31="",NA(),Experiment3_vector!K31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KG3" t="e">
+        <f>IF(Experiment3_vector!L31="",NA(),Experiment3_vector!L31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KH3" t="e">
+        <f>IF(Experiment3_vector!M31="",NA(),Experiment3_vector!M31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KI3" t="e">
+        <f>IF(Experiment3_vector!N31="",NA(),Experiment3_vector!N31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KJ3" t="e">
+        <f>IF(Experiment3_vector!O31="",NA(),Experiment3_vector!O31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KK3" t="e">
+        <f>IF(Experiment3_vector!P31="",NA(),Experiment3_vector!P31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KL3" t="e">
+        <f>IF(Experiment3_vector!Q31="",NA(),Experiment3_vector!Q31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KM3" t="e">
+        <f>IF(Experiment3_vector!R31="",NA(),Experiment3_vector!R31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KN3" t="e">
+        <f>IF(Experiment3_vector!S31="",NA(),Experiment3_vector!S31)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KO3" t="e">
+        <f>IF(Experiment3_vector!T31="",NA(),Experiment3_vector!T31)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="4" spans="1:201" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -13874,8 +18003,408 @@
         <f>IF(Experiment2!T32="",NA(),Experiment2!T32)</f>
         <v>#N/A</v>
       </c>
+      <c r="GT4">
+        <f>IF(Experiment3_vector!A4="",NA(),Experiment3_vector!A4)</f>
+        <v>38</v>
+      </c>
+      <c r="GU4">
+        <f>IF(Experiment3_vector!B4="",NA(),Experiment3_vector!B4)</f>
+        <v>8</v>
+      </c>
+      <c r="GV4">
+        <f>IF(Experiment3_vector!C4="",NA(),Experiment3_vector!C4)</f>
+        <v>26</v>
+      </c>
+      <c r="GW4">
+        <f>IF(Experiment3_vector!D4="",NA(),Experiment3_vector!D4)</f>
+        <v>39</v>
+      </c>
+      <c r="GX4">
+        <f>IF(Experiment3_vector!E4="",NA(),Experiment3_vector!E4)</f>
+        <v>15</v>
+      </c>
+      <c r="GY4">
+        <f>IF(Experiment3_vector!F4="",NA(),Experiment3_vector!F4)</f>
+        <v>42</v>
+      </c>
+      <c r="GZ4">
+        <f>IF(Experiment3_vector!G4="",NA(),Experiment3_vector!G4)</f>
+        <v>40</v>
+      </c>
+      <c r="HA4">
+        <f>IF(Experiment3_vector!H4="",NA(),Experiment3_vector!H4)</f>
+        <v>31</v>
+      </c>
+      <c r="HB4">
+        <f>IF(Experiment3_vector!I4="",NA(),Experiment3_vector!I4)</f>
+        <v>23</v>
+      </c>
+      <c r="HC4">
+        <f>IF(Experiment3_vector!J4="",NA(),Experiment3_vector!J4)</f>
+        <v>21</v>
+      </c>
+      <c r="HD4" t="e">
+        <f>IF(Experiment3_vector!K4="",NA(),Experiment3_vector!K4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HE4" t="e">
+        <f>IF(Experiment3_vector!L4="",NA(),Experiment3_vector!L4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HF4" t="e">
+        <f>IF(Experiment3_vector!M4="",NA(),Experiment3_vector!M4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HG4" t="e">
+        <f>IF(Experiment3_vector!N4="",NA(),Experiment3_vector!N4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HH4" t="e">
+        <f>IF(Experiment3_vector!O4="",NA(),Experiment3_vector!O4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HI4" t="e">
+        <f>IF(Experiment3_vector!P4="",NA(),Experiment3_vector!P4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HJ4" t="e">
+        <f>IF(Experiment3_vector!Q4="",NA(),Experiment3_vector!Q4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HK4" t="e">
+        <f>IF(Experiment3_vector!R4="",NA(),Experiment3_vector!R4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HL4" t="e">
+        <f>IF(Experiment3_vector!S4="",NA(),Experiment3_vector!S4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HM4" t="e">
+        <f>IF(Experiment3_vector!T4="",NA(),Experiment3_vector!T4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HN4">
+        <f>IF(Experiment3_vector!A11="",NA(),Experiment3_vector!A11)</f>
+        <v>17</v>
+      </c>
+      <c r="HO4">
+        <f>IF(Experiment3_vector!B11="",NA(),Experiment3_vector!B11)</f>
+        <v>14</v>
+      </c>
+      <c r="HP4">
+        <f>IF(Experiment3_vector!C11="",NA(),Experiment3_vector!C11)</f>
+        <v>44</v>
+      </c>
+      <c r="HQ4">
+        <f>IF(Experiment3_vector!D11="",NA(),Experiment3_vector!D11)</f>
+        <v>17</v>
+      </c>
+      <c r="HR4">
+        <f>IF(Experiment3_vector!E11="",NA(),Experiment3_vector!E11)</f>
+        <v>10</v>
+      </c>
+      <c r="HS4">
+        <f>IF(Experiment3_vector!F11="",NA(),Experiment3_vector!F11)</f>
+        <v>32</v>
+      </c>
+      <c r="HT4">
+        <f>IF(Experiment3_vector!G11="",NA(),Experiment3_vector!G11)</f>
+        <v>41</v>
+      </c>
+      <c r="HU4">
+        <f>IF(Experiment3_vector!H11="",NA(),Experiment3_vector!H11)</f>
+        <v>43</v>
+      </c>
+      <c r="HV4">
+        <f>IF(Experiment3_vector!I11="",NA(),Experiment3_vector!I11)</f>
+        <v>14</v>
+      </c>
+      <c r="HW4">
+        <f>IF(Experiment3_vector!J11="",NA(),Experiment3_vector!J11)</f>
+        <v>15</v>
+      </c>
+      <c r="HX4" t="e">
+        <f>IF(Experiment3_vector!K11="",NA(),Experiment3_vector!K11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HY4" t="e">
+        <f>IF(Experiment3_vector!L11="",NA(),Experiment3_vector!L11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HZ4" t="e">
+        <f>IF(Experiment3_vector!M11="",NA(),Experiment3_vector!M11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IA4" t="e">
+        <f>IF(Experiment3_vector!N11="",NA(),Experiment3_vector!N11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IB4" t="e">
+        <f>IF(Experiment3_vector!O11="",NA(),Experiment3_vector!O11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IC4" t="e">
+        <f>IF(Experiment3_vector!P11="",NA(),Experiment3_vector!P11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ID4" t="e">
+        <f>IF(Experiment3_vector!Q11="",NA(),Experiment3_vector!Q11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IE4" t="e">
+        <f>IF(Experiment3_vector!R11="",NA(),Experiment3_vector!R11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IF4" t="e">
+        <f>IF(Experiment3_vector!S11="",NA(),Experiment3_vector!S11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IG4" t="e">
+        <f>IF(Experiment3_vector!T11="",NA(),Experiment3_vector!T11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IH4">
+        <f>IF(Experiment3_vector!A18="",NA(),Experiment3_vector!A18)</f>
+        <v>28</v>
+      </c>
+      <c r="II4">
+        <f>IF(Experiment3_vector!B18="",NA(),Experiment3_vector!B18)</f>
+        <v>8</v>
+      </c>
+      <c r="IJ4">
+        <f>IF(Experiment3_vector!C18="",NA(),Experiment3_vector!C18)</f>
+        <v>34</v>
+      </c>
+      <c r="IK4">
+        <f>IF(Experiment3_vector!D18="",NA(),Experiment3_vector!D18)</f>
+        <v>22</v>
+      </c>
+      <c r="IL4">
+        <f>IF(Experiment3_vector!E18="",NA(),Experiment3_vector!E18)</f>
+        <v>28</v>
+      </c>
+      <c r="IM4">
+        <f>IF(Experiment3_vector!F18="",NA(),Experiment3_vector!F18)</f>
+        <v>55</v>
+      </c>
+      <c r="IN4">
+        <f>IF(Experiment3_vector!G18="",NA(),Experiment3_vector!G18)</f>
+        <v>89</v>
+      </c>
+      <c r="IO4">
+        <f>IF(Experiment3_vector!H18="",NA(),Experiment3_vector!H18)</f>
+        <v>88</v>
+      </c>
+      <c r="IP4">
+        <f>IF(Experiment3_vector!I18="",NA(),Experiment3_vector!I18)</f>
+        <v>10</v>
+      </c>
+      <c r="IQ4">
+        <f>IF(Experiment3_vector!J18="",NA(),Experiment3_vector!J18)</f>
+        <v>41</v>
+      </c>
+      <c r="IR4" t="e">
+        <f>IF(Experiment3_vector!K18="",NA(),Experiment3_vector!K18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IS4" t="e">
+        <f>IF(Experiment3_vector!L18="",NA(),Experiment3_vector!L18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IT4" t="e">
+        <f>IF(Experiment3_vector!M18="",NA(),Experiment3_vector!M18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IU4" t="e">
+        <f>IF(Experiment3_vector!N18="",NA(),Experiment3_vector!N18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IV4" t="e">
+        <f>IF(Experiment3_vector!O18="",NA(),Experiment3_vector!O18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IW4" t="e">
+        <f>IF(Experiment3_vector!P18="",NA(),Experiment3_vector!P18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IX4" t="e">
+        <f>IF(Experiment3_vector!Q18="",NA(),Experiment3_vector!Q18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IY4" t="e">
+        <f>IF(Experiment3_vector!R18="",NA(),Experiment3_vector!R18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IZ4" t="e">
+        <f>IF(Experiment3_vector!S18="",NA(),Experiment3_vector!S18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JA4" t="e">
+        <f>IF(Experiment3_vector!T18="",NA(),Experiment3_vector!T18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JB4">
+        <f>IF(Experiment3_vector!A25="",NA(),Experiment3_vector!A25)</f>
+        <v>6</v>
+      </c>
+      <c r="JC4">
+        <f>IF(Experiment3_vector!B25="",NA(),Experiment3_vector!B25)</f>
+        <v>9</v>
+      </c>
+      <c r="JD4">
+        <f>IF(Experiment3_vector!C25="",NA(),Experiment3_vector!C25)</f>
+        <v>9</v>
+      </c>
+      <c r="JE4">
+        <f>IF(Experiment3_vector!D25="",NA(),Experiment3_vector!D25)</f>
+        <v>6</v>
+      </c>
+      <c r="JF4">
+        <f>IF(Experiment3_vector!E25="",NA(),Experiment3_vector!E25)</f>
+        <v>11</v>
+      </c>
+      <c r="JG4">
+        <f>IF(Experiment3_vector!F25="",NA(),Experiment3_vector!F25)</f>
+        <v>6</v>
+      </c>
+      <c r="JH4">
+        <f>IF(Experiment3_vector!G25="",NA(),Experiment3_vector!G25)</f>
+        <v>15</v>
+      </c>
+      <c r="JI4">
+        <f>IF(Experiment3_vector!H25="",NA(),Experiment3_vector!H25)</f>
+        <v>8</v>
+      </c>
+      <c r="JJ4">
+        <f>IF(Experiment3_vector!I25="",NA(),Experiment3_vector!I25)</f>
+        <v>10</v>
+      </c>
+      <c r="JK4">
+        <f>IF(Experiment3_vector!J25="",NA(),Experiment3_vector!J25)</f>
+        <v>10</v>
+      </c>
+      <c r="JL4" t="e">
+        <f>IF(Experiment3_vector!K25="",NA(),Experiment3_vector!K25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JM4" t="e">
+        <f>IF(Experiment3_vector!L25="",NA(),Experiment3_vector!L25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JN4" t="e">
+        <f>IF(Experiment3_vector!M25="",NA(),Experiment3_vector!M25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JO4" t="e">
+        <f>IF(Experiment3_vector!N25="",NA(),Experiment3_vector!N25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JP4" t="e">
+        <f>IF(Experiment3_vector!O25="",NA(),Experiment3_vector!O25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JQ4" t="e">
+        <f>IF(Experiment3_vector!P25="",NA(),Experiment3_vector!P25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JR4" t="e">
+        <f>IF(Experiment3_vector!Q25="",NA(),Experiment3_vector!Q25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JS4" t="e">
+        <f>IF(Experiment3_vector!R25="",NA(),Experiment3_vector!R25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JT4" t="e">
+        <f>IF(Experiment3_vector!S25="",NA(),Experiment3_vector!S25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JU4" t="e">
+        <f>IF(Experiment3_vector!T25="",NA(),Experiment3_vector!T25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JV4">
+        <f>IF(Experiment3_vector!A32="",NA(),Experiment3_vector!A32)</f>
+        <v>1</v>
+      </c>
+      <c r="JW4">
+        <f>IF(Experiment3_vector!B32="",NA(),Experiment3_vector!B32)</f>
+        <v>4</v>
+      </c>
+      <c r="JX4">
+        <f>IF(Experiment3_vector!C32="",NA(),Experiment3_vector!C32)</f>
+        <v>3</v>
+      </c>
+      <c r="JY4">
+        <f>IF(Experiment3_vector!D32="",NA(),Experiment3_vector!D32)</f>
+        <v>1</v>
+      </c>
+      <c r="JZ4">
+        <f>IF(Experiment3_vector!E32="",NA(),Experiment3_vector!E32)</f>
+        <v>1</v>
+      </c>
+      <c r="KA4">
+        <f>IF(Experiment3_vector!F32="",NA(),Experiment3_vector!F32)</f>
+        <v>1</v>
+      </c>
+      <c r="KB4">
+        <f>IF(Experiment3_vector!G32="",NA(),Experiment3_vector!G32)</f>
+        <v>2</v>
+      </c>
+      <c r="KC4">
+        <f>IF(Experiment3_vector!H32="",NA(),Experiment3_vector!H32)</f>
+        <v>3</v>
+      </c>
+      <c r="KD4">
+        <f>IF(Experiment3_vector!I32="",NA(),Experiment3_vector!I32)</f>
+        <v>1</v>
+      </c>
+      <c r="KE4">
+        <f>IF(Experiment3_vector!J32="",NA(),Experiment3_vector!J32)</f>
+        <v>1</v>
+      </c>
+      <c r="KF4" t="e">
+        <f>IF(Experiment3_vector!K32="",NA(),Experiment3_vector!K32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KG4" t="e">
+        <f>IF(Experiment3_vector!L32="",NA(),Experiment3_vector!L32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KH4" t="e">
+        <f>IF(Experiment3_vector!M32="",NA(),Experiment3_vector!M32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KI4" t="e">
+        <f>IF(Experiment3_vector!N32="",NA(),Experiment3_vector!N32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KJ4" t="e">
+        <f>IF(Experiment3_vector!O32="",NA(),Experiment3_vector!O32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KK4" t="e">
+        <f>IF(Experiment3_vector!P32="",NA(),Experiment3_vector!P32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KL4" t="e">
+        <f>IF(Experiment3_vector!Q32="",NA(),Experiment3_vector!Q32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KM4" t="e">
+        <f>IF(Experiment3_vector!R32="",NA(),Experiment3_vector!R32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KN4" t="e">
+        <f>IF(Experiment3_vector!S32="",NA(),Experiment3_vector!S32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KO4" t="e">
+        <f>IF(Experiment3_vector!T32="",NA(),Experiment3_vector!T32)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="5" spans="1:201" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -14679,8 +19208,408 @@
         <f>IF(Experiment2!T33="",NA(),Experiment2!T33)</f>
         <v>#N/A</v>
       </c>
+      <c r="GT5">
+        <f>IF(Experiment3_vector!A5="",NA(),Experiment3_vector!A5)</f>
+        <v>3</v>
+      </c>
+      <c r="GU5">
+        <f>IF(Experiment3_vector!B5="",NA(),Experiment3_vector!B5)</f>
+        <v>5</v>
+      </c>
+      <c r="GV5">
+        <f>IF(Experiment3_vector!C5="",NA(),Experiment3_vector!C5)</f>
+        <v>7</v>
+      </c>
+      <c r="GW5">
+        <f>IF(Experiment3_vector!D5="",NA(),Experiment3_vector!D5)</f>
+        <v>4</v>
+      </c>
+      <c r="GX5">
+        <f>IF(Experiment3_vector!E5="",NA(),Experiment3_vector!E5)</f>
+        <v>17</v>
+      </c>
+      <c r="GY5">
+        <f>IF(Experiment3_vector!F5="",NA(),Experiment3_vector!F5)</f>
+        <v>3</v>
+      </c>
+      <c r="GZ5">
+        <f>IF(Experiment3_vector!G5="",NA(),Experiment3_vector!G5)</f>
+        <v>9</v>
+      </c>
+      <c r="HA5">
+        <f>IF(Experiment3_vector!H5="",NA(),Experiment3_vector!H5)</f>
+        <v>6</v>
+      </c>
+      <c r="HB5">
+        <f>IF(Experiment3_vector!I5="",NA(),Experiment3_vector!I5)</f>
+        <v>11</v>
+      </c>
+      <c r="HC5">
+        <f>IF(Experiment3_vector!J5="",NA(),Experiment3_vector!J5)</f>
+        <v>31</v>
+      </c>
+      <c r="HD5">
+        <f>IF(Experiment3_vector!K5="",NA(),Experiment3_vector!K5)</f>
+        <v>49</v>
+      </c>
+      <c r="HE5">
+        <f>IF(Experiment3_vector!L5="",NA(),Experiment3_vector!L5)</f>
+        <v>6</v>
+      </c>
+      <c r="HF5">
+        <f>IF(Experiment3_vector!M5="",NA(),Experiment3_vector!M5)</f>
+        <v>1</v>
+      </c>
+      <c r="HG5">
+        <f>IF(Experiment3_vector!N5="",NA(),Experiment3_vector!N5)</f>
+        <v>8</v>
+      </c>
+      <c r="HH5">
+        <f>IF(Experiment3_vector!O5="",NA(),Experiment3_vector!O5)</f>
+        <v>10</v>
+      </c>
+      <c r="HI5" t="e">
+        <f>IF(Experiment3_vector!P5="",NA(),Experiment3_vector!P5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HJ5" t="e">
+        <f>IF(Experiment3_vector!Q5="",NA(),Experiment3_vector!Q5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HK5" t="e">
+        <f>IF(Experiment3_vector!R5="",NA(),Experiment3_vector!R5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HL5" t="e">
+        <f>IF(Experiment3_vector!S5="",NA(),Experiment3_vector!S5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HM5" t="e">
+        <f>IF(Experiment3_vector!T5="",NA(),Experiment3_vector!T5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="HN5">
+        <f>IF(Experiment3_vector!A12="",NA(),Experiment3_vector!A12)</f>
+        <v>31</v>
+      </c>
+      <c r="HO5">
+        <f>IF(Experiment3_vector!B12="",NA(),Experiment3_vector!B12)</f>
+        <v>54</v>
+      </c>
+      <c r="HP5">
+        <f>IF(Experiment3_vector!C12="",NA(),Experiment3_vector!C12)</f>
+        <v>15</v>
+      </c>
+      <c r="HQ5">
+        <f>IF(Experiment3_vector!D12="",NA(),Experiment3_vector!D12)</f>
+        <v>10</v>
+      </c>
+      <c r="HR5">
+        <f>IF(Experiment3_vector!E12="",NA(),Experiment3_vector!E12)</f>
+        <v>12</v>
+      </c>
+      <c r="HS5">
+        <f>IF(Experiment3_vector!F12="",NA(),Experiment3_vector!F12)</f>
+        <v>6</v>
+      </c>
+      <c r="HT5">
+        <f>IF(Experiment3_vector!G12="",NA(),Experiment3_vector!G12)</f>
+        <v>8</v>
+      </c>
+      <c r="HU5">
+        <f>IF(Experiment3_vector!H12="",NA(),Experiment3_vector!H12)</f>
+        <v>3</v>
+      </c>
+      <c r="HV5">
+        <f>IF(Experiment3_vector!I12="",NA(),Experiment3_vector!I12)</f>
+        <v>16</v>
+      </c>
+      <c r="HW5">
+        <f>IF(Experiment3_vector!J12="",NA(),Experiment3_vector!J12)</f>
+        <v>44</v>
+      </c>
+      <c r="HX5">
+        <f>IF(Experiment3_vector!K12="",NA(),Experiment3_vector!K12)</f>
+        <v>18</v>
+      </c>
+      <c r="HY5">
+        <f>IF(Experiment3_vector!L12="",NA(),Experiment3_vector!L12)</f>
+        <v>9</v>
+      </c>
+      <c r="HZ5">
+        <f>IF(Experiment3_vector!M12="",NA(),Experiment3_vector!M12)</f>
+        <v>40</v>
+      </c>
+      <c r="IA5">
+        <f>IF(Experiment3_vector!N12="",NA(),Experiment3_vector!N12)</f>
+        <v>118</v>
+      </c>
+      <c r="IB5">
+        <f>IF(Experiment3_vector!O12="",NA(),Experiment3_vector!O12)</f>
+        <v>5</v>
+      </c>
+      <c r="IC5" t="e">
+        <f>IF(Experiment3_vector!P12="",NA(),Experiment3_vector!P12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ID5" t="e">
+        <f>IF(Experiment3_vector!Q12="",NA(),Experiment3_vector!Q12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IE5" t="e">
+        <f>IF(Experiment3_vector!R12="",NA(),Experiment3_vector!R12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IF5" t="e">
+        <f>IF(Experiment3_vector!S12="",NA(),Experiment3_vector!S12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IG5" t="e">
+        <f>IF(Experiment3_vector!T12="",NA(),Experiment3_vector!T12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IH5">
+        <f>IF(Experiment3_vector!A19="",NA(),Experiment3_vector!A19)</f>
+        <v>13</v>
+      </c>
+      <c r="II5">
+        <f>IF(Experiment3_vector!B19="",NA(),Experiment3_vector!B19)</f>
+        <v>37</v>
+      </c>
+      <c r="IJ5">
+        <f>IF(Experiment3_vector!C19="",NA(),Experiment3_vector!C19)</f>
+        <v>8</v>
+      </c>
+      <c r="IK5">
+        <f>IF(Experiment3_vector!D19="",NA(),Experiment3_vector!D19)</f>
+        <v>4</v>
+      </c>
+      <c r="IL5">
+        <f>IF(Experiment3_vector!E19="",NA(),Experiment3_vector!E19)</f>
+        <v>12</v>
+      </c>
+      <c r="IM5">
+        <f>IF(Experiment3_vector!F19="",NA(),Experiment3_vector!F19)</f>
+        <v>16</v>
+      </c>
+      <c r="IN5">
+        <f>IF(Experiment3_vector!G19="",NA(),Experiment3_vector!G19)</f>
+        <v>20</v>
+      </c>
+      <c r="IO5">
+        <f>IF(Experiment3_vector!H19="",NA(),Experiment3_vector!H19)</f>
+        <v>20</v>
+      </c>
+      <c r="IP5">
+        <f>IF(Experiment3_vector!I19="",NA(),Experiment3_vector!I19)</f>
+        <v>4</v>
+      </c>
+      <c r="IQ5">
+        <f>IF(Experiment3_vector!J19="",NA(),Experiment3_vector!J19)</f>
+        <v>33</v>
+      </c>
+      <c r="IR5">
+        <f>IF(Experiment3_vector!K19="",NA(),Experiment3_vector!K19)</f>
+        <v>7</v>
+      </c>
+      <c r="IS5">
+        <f>IF(Experiment3_vector!L19="",NA(),Experiment3_vector!L19)</f>
+        <v>19</v>
+      </c>
+      <c r="IT5">
+        <f>IF(Experiment3_vector!M19="",NA(),Experiment3_vector!M19)</f>
+        <v>2</v>
+      </c>
+      <c r="IU5">
+        <f>IF(Experiment3_vector!N19="",NA(),Experiment3_vector!N19)</f>
+        <v>26</v>
+      </c>
+      <c r="IV5">
+        <f>IF(Experiment3_vector!O19="",NA(),Experiment3_vector!O19)</f>
+        <v>15</v>
+      </c>
+      <c r="IW5" t="e">
+        <f>IF(Experiment3_vector!P19="",NA(),Experiment3_vector!P19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IX5" t="e">
+        <f>IF(Experiment3_vector!Q19="",NA(),Experiment3_vector!Q19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IY5" t="e">
+        <f>IF(Experiment3_vector!R19="",NA(),Experiment3_vector!R19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="IZ5" t="e">
+        <f>IF(Experiment3_vector!S19="",NA(),Experiment3_vector!S19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JA5" t="e">
+        <f>IF(Experiment3_vector!T19="",NA(),Experiment3_vector!T19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JB5">
+        <f>IF(Experiment3_vector!A26="",NA(),Experiment3_vector!A26)</f>
+        <v>9</v>
+      </c>
+      <c r="JC5">
+        <f>IF(Experiment3_vector!B26="",NA(),Experiment3_vector!B26)</f>
+        <v>11</v>
+      </c>
+      <c r="JD5">
+        <f>IF(Experiment3_vector!C26="",NA(),Experiment3_vector!C26)</f>
+        <v>16</v>
+      </c>
+      <c r="JE5">
+        <f>IF(Experiment3_vector!D26="",NA(),Experiment3_vector!D26)</f>
+        <v>30</v>
+      </c>
+      <c r="JF5">
+        <f>IF(Experiment3_vector!E26="",NA(),Experiment3_vector!E26)</f>
+        <v>16</v>
+      </c>
+      <c r="JG5">
+        <f>IF(Experiment3_vector!F26="",NA(),Experiment3_vector!F26)</f>
+        <v>4</v>
+      </c>
+      <c r="JH5">
+        <f>IF(Experiment3_vector!G26="",NA(),Experiment3_vector!G26)</f>
+        <v>12</v>
+      </c>
+      <c r="JI5">
+        <f>IF(Experiment3_vector!H26="",NA(),Experiment3_vector!H26)</f>
+        <v>45</v>
+      </c>
+      <c r="JJ5">
+        <f>IF(Experiment3_vector!I26="",NA(),Experiment3_vector!I26)</f>
+        <v>59</v>
+      </c>
+      <c r="JK5">
+        <f>IF(Experiment3_vector!J26="",NA(),Experiment3_vector!J26)</f>
+        <v>4</v>
+      </c>
+      <c r="JL5">
+        <f>IF(Experiment3_vector!K26="",NA(),Experiment3_vector!K26)</f>
+        <v>9</v>
+      </c>
+      <c r="JM5">
+        <f>IF(Experiment3_vector!L26="",NA(),Experiment3_vector!L26)</f>
+        <v>15</v>
+      </c>
+      <c r="JN5">
+        <f>IF(Experiment3_vector!M26="",NA(),Experiment3_vector!M26)</f>
+        <v>19</v>
+      </c>
+      <c r="JO5">
+        <f>IF(Experiment3_vector!N26="",NA(),Experiment3_vector!N26)</f>
+        <v>9</v>
+      </c>
+      <c r="JP5">
+        <f>IF(Experiment3_vector!O26="",NA(),Experiment3_vector!O26)</f>
+        <v>12</v>
+      </c>
+      <c r="JQ5" t="e">
+        <f>IF(Experiment3_vector!P26="",NA(),Experiment3_vector!P26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JR5" t="e">
+        <f>IF(Experiment3_vector!Q26="",NA(),Experiment3_vector!Q26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JS5" t="e">
+        <f>IF(Experiment3_vector!R26="",NA(),Experiment3_vector!R26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JT5" t="e">
+        <f>IF(Experiment3_vector!S26="",NA(),Experiment3_vector!S26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JU5" t="e">
+        <f>IF(Experiment3_vector!T26="",NA(),Experiment3_vector!T26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="JV5">
+        <f>IF(Experiment3_vector!A33="",NA(),Experiment3_vector!A33)</f>
+        <v>11</v>
+      </c>
+      <c r="JW5">
+        <f>IF(Experiment3_vector!B33="",NA(),Experiment3_vector!B33)</f>
+        <v>3</v>
+      </c>
+      <c r="JX5">
+        <f>IF(Experiment3_vector!C33="",NA(),Experiment3_vector!C33)</f>
+        <v>13</v>
+      </c>
+      <c r="JY5">
+        <f>IF(Experiment3_vector!D33="",NA(),Experiment3_vector!D33)</f>
+        <v>22</v>
+      </c>
+      <c r="JZ5">
+        <f>IF(Experiment3_vector!E33="",NA(),Experiment3_vector!E33)</f>
+        <v>3</v>
+      </c>
+      <c r="KA5">
+        <f>IF(Experiment3_vector!F33="",NA(),Experiment3_vector!F33)</f>
+        <v>27</v>
+      </c>
+      <c r="KB5">
+        <f>IF(Experiment3_vector!G33="",NA(),Experiment3_vector!G33)</f>
+        <v>67</v>
+      </c>
+      <c r="KC5">
+        <f>IF(Experiment3_vector!H33="",NA(),Experiment3_vector!H33)</f>
+        <v>4</v>
+      </c>
+      <c r="KD5">
+        <f>IF(Experiment3_vector!I33="",NA(),Experiment3_vector!I33)</f>
+        <v>48</v>
+      </c>
+      <c r="KE5">
+        <f>IF(Experiment3_vector!J33="",NA(),Experiment3_vector!J33)</f>
+        <v>23</v>
+      </c>
+      <c r="KF5">
+        <f>IF(Experiment3_vector!K33="",NA(),Experiment3_vector!K33)</f>
+        <v>13</v>
+      </c>
+      <c r="KG5">
+        <f>IF(Experiment3_vector!L33="",NA(),Experiment3_vector!L33)</f>
+        <v>8</v>
+      </c>
+      <c r="KH5">
+        <f>IF(Experiment3_vector!M33="",NA(),Experiment3_vector!M33)</f>
+        <v>19</v>
+      </c>
+      <c r="KI5">
+        <f>IF(Experiment3_vector!N33="",NA(),Experiment3_vector!N33)</f>
+        <v>20</v>
+      </c>
+      <c r="KJ5">
+        <f>IF(Experiment3_vector!O33="",NA(),Experiment3_vector!O33)</f>
+        <v>4</v>
+      </c>
+      <c r="KK5" t="e">
+        <f>IF(Experiment3_vector!P33="",NA(),Experiment3_vector!P33)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KL5" t="e">
+        <f>IF(Experiment3_vector!Q33="",NA(),Experiment3_vector!Q33)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KM5" t="e">
+        <f>IF(Experiment3_vector!R33="",NA(),Experiment3_vector!R33)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KN5" t="e">
+        <f>IF(Experiment3_vector!S33="",NA(),Experiment3_vector!S33)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="KO5" t="e">
+        <f>IF(Experiment3_vector!T33="",NA(),Experiment3_vector!T33)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="6" spans="1:201" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -15483,6 +20412,406 @@
       <c r="GS6">
         <f>IF(Experiment2!T34="",NA(),Experiment2!T34)</f>
         <v>101</v>
+      </c>
+      <c r="GT6">
+        <f>IF(Experiment3_vector!A6="",NA(),Experiment3_vector!A6)</f>
+        <v>61</v>
+      </c>
+      <c r="GU6">
+        <f>IF(Experiment3_vector!B6="",NA(),Experiment3_vector!B6)</f>
+        <v>11</v>
+      </c>
+      <c r="GV6">
+        <f>IF(Experiment3_vector!C6="",NA(),Experiment3_vector!C6)</f>
+        <v>57</v>
+      </c>
+      <c r="GW6">
+        <f>IF(Experiment3_vector!D6="",NA(),Experiment3_vector!D6)</f>
+        <v>114</v>
+      </c>
+      <c r="GX6">
+        <f>IF(Experiment3_vector!E6="",NA(),Experiment3_vector!E6)</f>
+        <v>16</v>
+      </c>
+      <c r="GY6">
+        <f>IF(Experiment3_vector!F6="",NA(),Experiment3_vector!F6)</f>
+        <v>62</v>
+      </c>
+      <c r="GZ6">
+        <f>IF(Experiment3_vector!G6="",NA(),Experiment3_vector!G6)</f>
+        <v>67</v>
+      </c>
+      <c r="HA6">
+        <f>IF(Experiment3_vector!H6="",NA(),Experiment3_vector!H6)</f>
+        <v>5</v>
+      </c>
+      <c r="HB6">
+        <f>IF(Experiment3_vector!I6="",NA(),Experiment3_vector!I6)</f>
+        <v>21</v>
+      </c>
+      <c r="HC6">
+        <f>IF(Experiment3_vector!J6="",NA(),Experiment3_vector!J6)</f>
+        <v>30</v>
+      </c>
+      <c r="HD6">
+        <f>IF(Experiment3_vector!K6="",NA(),Experiment3_vector!K6)</f>
+        <v>31</v>
+      </c>
+      <c r="HE6">
+        <f>IF(Experiment3_vector!L6="",NA(),Experiment3_vector!L6)</f>
+        <v>66</v>
+      </c>
+      <c r="HF6">
+        <f>IF(Experiment3_vector!M6="",NA(),Experiment3_vector!M6)</f>
+        <v>35</v>
+      </c>
+      <c r="HG6">
+        <f>IF(Experiment3_vector!N6="",NA(),Experiment3_vector!N6)</f>
+        <v>36</v>
+      </c>
+      <c r="HH6">
+        <f>IF(Experiment3_vector!O6="",NA(),Experiment3_vector!O6)</f>
+        <v>33</v>
+      </c>
+      <c r="HI6">
+        <f>IF(Experiment3_vector!P6="",NA(),Experiment3_vector!P6)</f>
+        <v>28</v>
+      </c>
+      <c r="HJ6">
+        <f>IF(Experiment3_vector!Q6="",NA(),Experiment3_vector!Q6)</f>
+        <v>65</v>
+      </c>
+      <c r="HK6">
+        <f>IF(Experiment3_vector!R6="",NA(),Experiment3_vector!R6)</f>
+        <v>12</v>
+      </c>
+      <c r="HL6">
+        <f>IF(Experiment3_vector!S6="",NA(),Experiment3_vector!S6)</f>
+        <v>120</v>
+      </c>
+      <c r="HM6">
+        <f>IF(Experiment3_vector!T6="",NA(),Experiment3_vector!T6)</f>
+        <v>71</v>
+      </c>
+      <c r="HN6">
+        <f>IF(Experiment3_vector!A13="",NA(),Experiment3_vector!A13)</f>
+        <v>27</v>
+      </c>
+      <c r="HO6">
+        <f>IF(Experiment3_vector!B13="",NA(),Experiment3_vector!B13)</f>
+        <v>24</v>
+      </c>
+      <c r="HP6">
+        <f>IF(Experiment3_vector!C13="",NA(),Experiment3_vector!C13)</f>
+        <v>4</v>
+      </c>
+      <c r="HQ6">
+        <f>IF(Experiment3_vector!D13="",NA(),Experiment3_vector!D13)</f>
+        <v>30</v>
+      </c>
+      <c r="HR6">
+        <f>IF(Experiment3_vector!E13="",NA(),Experiment3_vector!E13)</f>
+        <v>23</v>
+      </c>
+      <c r="HS6">
+        <f>IF(Experiment3_vector!F13="",NA(),Experiment3_vector!F13)</f>
+        <v>13</v>
+      </c>
+      <c r="HT6">
+        <f>IF(Experiment3_vector!G13="",NA(),Experiment3_vector!G13)</f>
+        <v>19</v>
+      </c>
+      <c r="HU6">
+        <f>IF(Experiment3_vector!H13="",NA(),Experiment3_vector!H13)</f>
+        <v>27</v>
+      </c>
+      <c r="HV6">
+        <f>IF(Experiment3_vector!I13="",NA(),Experiment3_vector!I13)</f>
+        <v>13</v>
+      </c>
+      <c r="HW6">
+        <f>IF(Experiment3_vector!J13="",NA(),Experiment3_vector!J13)</f>
+        <v>25</v>
+      </c>
+      <c r="HX6">
+        <f>IF(Experiment3_vector!K13="",NA(),Experiment3_vector!K13)</f>
+        <v>26</v>
+      </c>
+      <c r="HY6">
+        <f>IF(Experiment3_vector!L13="",NA(),Experiment3_vector!L13)</f>
+        <v>24</v>
+      </c>
+      <c r="HZ6">
+        <f>IF(Experiment3_vector!M13="",NA(),Experiment3_vector!M13)</f>
+        <v>56</v>
+      </c>
+      <c r="IA6">
+        <f>IF(Experiment3_vector!N13="",NA(),Experiment3_vector!N13)</f>
+        <v>57</v>
+      </c>
+      <c r="IB6">
+        <f>IF(Experiment3_vector!O13="",NA(),Experiment3_vector!O13)</f>
+        <v>35</v>
+      </c>
+      <c r="IC6">
+        <f>IF(Experiment3_vector!P13="",NA(),Experiment3_vector!P13)</f>
+        <v>20</v>
+      </c>
+      <c r="ID6">
+        <f>IF(Experiment3_vector!Q13="",NA(),Experiment3_vector!Q13)</f>
+        <v>35</v>
+      </c>
+      <c r="IE6">
+        <f>IF(Experiment3_vector!R13="",NA(),Experiment3_vector!R13)</f>
+        <v>5</v>
+      </c>
+      <c r="IF6">
+        <f>IF(Experiment3_vector!S13="",NA(),Experiment3_vector!S13)</f>
+        <v>11</v>
+      </c>
+      <c r="IG6">
+        <f>IF(Experiment3_vector!T13="",NA(),Experiment3_vector!T13)</f>
+        <v>21</v>
+      </c>
+      <c r="IH6">
+        <f>IF(Experiment3_vector!A20="",NA(),Experiment3_vector!A20)</f>
+        <v>58</v>
+      </c>
+      <c r="II6">
+        <f>IF(Experiment3_vector!B20="",NA(),Experiment3_vector!B20)</f>
+        <v>42</v>
+      </c>
+      <c r="IJ6">
+        <f>IF(Experiment3_vector!C20="",NA(),Experiment3_vector!C20)</f>
+        <v>41</v>
+      </c>
+      <c r="IK6">
+        <f>IF(Experiment3_vector!D20="",NA(),Experiment3_vector!D20)</f>
+        <v>17</v>
+      </c>
+      <c r="IL6">
+        <f>IF(Experiment3_vector!E20="",NA(),Experiment3_vector!E20)</f>
+        <v>11</v>
+      </c>
+      <c r="IM6">
+        <f>IF(Experiment3_vector!F20="",NA(),Experiment3_vector!F20)</f>
+        <v>68</v>
+      </c>
+      <c r="IN6">
+        <f>IF(Experiment3_vector!G20="",NA(),Experiment3_vector!G20)</f>
+        <v>16</v>
+      </c>
+      <c r="IO6">
+        <f>IF(Experiment3_vector!H20="",NA(),Experiment3_vector!H20)</f>
+        <v>59</v>
+      </c>
+      <c r="IP6">
+        <f>IF(Experiment3_vector!I20="",NA(),Experiment3_vector!I20)</f>
+        <v>33</v>
+      </c>
+      <c r="IQ6">
+        <f>IF(Experiment3_vector!J20="",NA(),Experiment3_vector!J20)</f>
+        <v>73</v>
+      </c>
+      <c r="IR6">
+        <f>IF(Experiment3_vector!K20="",NA(),Experiment3_vector!K20)</f>
+        <v>24</v>
+      </c>
+      <c r="IS6">
+        <f>IF(Experiment3_vector!L20="",NA(),Experiment3_vector!L20)</f>
+        <v>2</v>
+      </c>
+      <c r="IT6">
+        <f>IF(Experiment3_vector!M20="",NA(),Experiment3_vector!M20)</f>
+        <v>16</v>
+      </c>
+      <c r="IU6">
+        <f>IF(Experiment3_vector!N20="",NA(),Experiment3_vector!N20)</f>
+        <v>41</v>
+      </c>
+      <c r="IV6">
+        <f>IF(Experiment3_vector!O20="",NA(),Experiment3_vector!O20)</f>
+        <v>27</v>
+      </c>
+      <c r="IW6">
+        <f>IF(Experiment3_vector!P20="",NA(),Experiment3_vector!P20)</f>
+        <v>27</v>
+      </c>
+      <c r="IX6">
+        <f>IF(Experiment3_vector!Q20="",NA(),Experiment3_vector!Q20)</f>
+        <v>59</v>
+      </c>
+      <c r="IY6">
+        <f>IF(Experiment3_vector!R20="",NA(),Experiment3_vector!R20)</f>
+        <v>8</v>
+      </c>
+      <c r="IZ6">
+        <f>IF(Experiment3_vector!S20="",NA(),Experiment3_vector!S20)</f>
+        <v>60</v>
+      </c>
+      <c r="JA6">
+        <f>IF(Experiment3_vector!T20="",NA(),Experiment3_vector!T20)</f>
+        <v>18</v>
+      </c>
+      <c r="JB6">
+        <f>IF(Experiment3_vector!A27="",NA(),Experiment3_vector!A27)</f>
+        <v>17</v>
+      </c>
+      <c r="JC6">
+        <f>IF(Experiment3_vector!B27="",NA(),Experiment3_vector!B27)</f>
+        <v>14</v>
+      </c>
+      <c r="JD6">
+        <f>IF(Experiment3_vector!C27="",NA(),Experiment3_vector!C27)</f>
+        <v>34</v>
+      </c>
+      <c r="JE6">
+        <f>IF(Experiment3_vector!D27="",NA(),Experiment3_vector!D27)</f>
+        <v>88</v>
+      </c>
+      <c r="JF6">
+        <f>IF(Experiment3_vector!E27="",NA(),Experiment3_vector!E27)</f>
+        <v>5</v>
+      </c>
+      <c r="JG6">
+        <f>IF(Experiment3_vector!F27="",NA(),Experiment3_vector!F27)</f>
+        <v>13</v>
+      </c>
+      <c r="JH6">
+        <f>IF(Experiment3_vector!G27="",NA(),Experiment3_vector!G27)</f>
+        <v>5</v>
+      </c>
+      <c r="JI6">
+        <f>IF(Experiment3_vector!H27="",NA(),Experiment3_vector!H27)</f>
+        <v>75</v>
+      </c>
+      <c r="JJ6">
+        <f>IF(Experiment3_vector!I27="",NA(),Experiment3_vector!I27)</f>
+        <v>41</v>
+      </c>
+      <c r="JK6">
+        <f>IF(Experiment3_vector!J27="",NA(),Experiment3_vector!J27)</f>
+        <v>21</v>
+      </c>
+      <c r="JL6">
+        <f>IF(Experiment3_vector!K27="",NA(),Experiment3_vector!K27)</f>
+        <v>39</v>
+      </c>
+      <c r="JM6">
+        <f>IF(Experiment3_vector!L27="",NA(),Experiment3_vector!L27)</f>
+        <v>62</v>
+      </c>
+      <c r="JN6">
+        <f>IF(Experiment3_vector!M27="",NA(),Experiment3_vector!M27)</f>
+        <v>28</v>
+      </c>
+      <c r="JO6">
+        <f>IF(Experiment3_vector!N27="",NA(),Experiment3_vector!N27)</f>
+        <v>50</v>
+      </c>
+      <c r="JP6">
+        <f>IF(Experiment3_vector!O27="",NA(),Experiment3_vector!O27)</f>
+        <v>7</v>
+      </c>
+      <c r="JQ6">
+        <f>IF(Experiment3_vector!P27="",NA(),Experiment3_vector!P27)</f>
+        <v>64</v>
+      </c>
+      <c r="JR6">
+        <f>IF(Experiment3_vector!Q27="",NA(),Experiment3_vector!Q27)</f>
+        <v>93</v>
+      </c>
+      <c r="JS6">
+        <f>IF(Experiment3_vector!R27="",NA(),Experiment3_vector!R27)</f>
+        <v>18</v>
+      </c>
+      <c r="JT6">
+        <f>IF(Experiment3_vector!S27="",NA(),Experiment3_vector!S27)</f>
+        <v>7</v>
+      </c>
+      <c r="JU6">
+        <f>IF(Experiment3_vector!T27="",NA(),Experiment3_vector!T27)</f>
+        <v>19</v>
+      </c>
+      <c r="JV6">
+        <f>IF(Experiment3_vector!A34="",NA(),Experiment3_vector!A34)</f>
+        <v>70</v>
+      </c>
+      <c r="JW6">
+        <f>IF(Experiment3_vector!B34="",NA(),Experiment3_vector!B34)</f>
+        <v>61</v>
+      </c>
+      <c r="JX6">
+        <f>IF(Experiment3_vector!C34="",NA(),Experiment3_vector!C34)</f>
+        <v>9</v>
+      </c>
+      <c r="JY6">
+        <f>IF(Experiment3_vector!D34="",NA(),Experiment3_vector!D34)</f>
+        <v>16</v>
+      </c>
+      <c r="JZ6">
+        <f>IF(Experiment3_vector!E34="",NA(),Experiment3_vector!E34)</f>
+        <v>17</v>
+      </c>
+      <c r="KA6">
+        <f>IF(Experiment3_vector!F34="",NA(),Experiment3_vector!F34)</f>
+        <v>12</v>
+      </c>
+      <c r="KB6">
+        <f>IF(Experiment3_vector!G34="",NA(),Experiment3_vector!G34)</f>
+        <v>14</v>
+      </c>
+      <c r="KC6">
+        <f>IF(Experiment3_vector!H34="",NA(),Experiment3_vector!H34)</f>
+        <v>11</v>
+      </c>
+      <c r="KD6">
+        <f>IF(Experiment3_vector!I34="",NA(),Experiment3_vector!I34)</f>
+        <v>13</v>
+      </c>
+      <c r="KE6">
+        <f>IF(Experiment3_vector!J34="",NA(),Experiment3_vector!J34)</f>
+        <v>11</v>
+      </c>
+      <c r="KF6">
+        <f>IF(Experiment3_vector!K34="",NA(),Experiment3_vector!K34)</f>
+        <v>37</v>
+      </c>
+      <c r="KG6">
+        <f>IF(Experiment3_vector!L34="",NA(),Experiment3_vector!L34)</f>
+        <v>10</v>
+      </c>
+      <c r="KH6">
+        <f>IF(Experiment3_vector!M34="",NA(),Experiment3_vector!M34)</f>
+        <v>20</v>
+      </c>
+      <c r="KI6">
+        <f>IF(Experiment3_vector!N34="",NA(),Experiment3_vector!N34)</f>
+        <v>62</v>
+      </c>
+      <c r="KJ6">
+        <f>IF(Experiment3_vector!O34="",NA(),Experiment3_vector!O34)</f>
+        <v>64</v>
+      </c>
+      <c r="KK6">
+        <f>IF(Experiment3_vector!P34="",NA(),Experiment3_vector!P34)</f>
+        <v>6</v>
+      </c>
+      <c r="KL6">
+        <f>IF(Experiment3_vector!Q34="",NA(),Experiment3_vector!Q34)</f>
+        <v>5</v>
+      </c>
+      <c r="KM6">
+        <f>IF(Experiment3_vector!R34="",NA(),Experiment3_vector!R34)</f>
+        <v>47</v>
+      </c>
+      <c r="KN6">
+        <f>IF(Experiment3_vector!S34="",NA(),Experiment3_vector!S34)</f>
+        <v>39</v>
+      </c>
+      <c r="KO6">
+        <f>IF(Experiment3_vector!T34="",NA(),Experiment3_vector!T34)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.2">
@@ -15517,7 +20846,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15525,4 +20854,1229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D890983F-CDEF-7440-9083-3C6F46E5832B}">
+  <dimension ref="A1:AA159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="25" max="25" width="17.33203125" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>15</v>
+      </c>
+      <c r="L1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>AVERAGE(A2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>STDEV(A2:T2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <f>AVERAGE(A3:E3)</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V6" si="0">STDEV(A3:T3)</f>
+        <v>2.9154759474226504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="U4">
+        <f>AVERAGE(A4:J4)</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>12.178761111961357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>41</v>
+      </c>
+      <c r="L5">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>17</v>
+      </c>
+      <c r="U5">
+        <f>AVERAGE(A5:O5)</f>
+        <v>18.266666666666666</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>13.874265317314576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>72</v>
+      </c>
+      <c r="P6">
+        <v>54</v>
+      </c>
+      <c r="Q6">
+        <v>42</v>
+      </c>
+      <c r="R6">
+        <v>32</v>
+      </c>
+      <c r="S6">
+        <v>19</v>
+      </c>
+      <c r="T6">
+        <v>48</v>
+      </c>
+      <c r="U6">
+        <f>AVERAGE(A6:T6)</f>
+        <v>28.65</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>18.368379580710233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>AVERAGE(A10:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:V14" si="1">STDEV(A10:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <f>AVERAGE(A11:E11)</f>
+        <v>2.6</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>3.2863353450309969</v>
+      </c>
+      <c r="Z11" s="9">
+        <f>AVERAGE(U2,U10,U17,U25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10">
+        <f>AVERAGE(V2,V10,V17,V25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>36</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGE(A12:J12)</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>10.764654094664529</v>
+      </c>
+      <c r="Z12" s="9">
+        <f>AVERAGE(U3,U11,U18,U26)</f>
+        <v>2.1</v>
+      </c>
+      <c r="AA12" s="10">
+        <f>AVERAGE(V3,V11,V18,V26)</f>
+        <v>2.6787532701676051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <v>78</v>
+      </c>
+      <c r="O13">
+        <v>50</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGE(A13:O13)</f>
+        <v>27.133333333333333</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>19.704483415371911</v>
+      </c>
+      <c r="Z13" s="9">
+        <f>AVERAGE(U4,U12,U19,U27)</f>
+        <v>17.975000000000001</v>
+      </c>
+      <c r="AA13" s="10">
+        <f>AVERAGE(V4,V12,V19,V27)</f>
+        <v>13.281556788193761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>65</v>
+      </c>
+      <c r="L14">
+        <v>38</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>54</v>
+      </c>
+      <c r="O14">
+        <v>48</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>50</v>
+      </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>18</v>
+      </c>
+      <c r="T14">
+        <v>17</v>
+      </c>
+      <c r="U14">
+        <f>AVERAGE(A14:T14)</f>
+        <v>30</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>17.882658462438144</v>
+      </c>
+      <c r="Z14" s="9">
+        <f>AVERAGE(U5,U13,U20,U28)</f>
+        <v>19.133333333333333</v>
+      </c>
+      <c r="AA14" s="10">
+        <f>AVERAGE(V5,V13,V20,V28)</f>
+        <v>14.171104670267828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="11">
+        <f>AVERAGE(U6,U14,U21,U29)</f>
+        <v>21.587500000000002</v>
+      </c>
+      <c r="AA15" s="12">
+        <f>AVERAGE(V6,V14,V21,V29)</f>
+        <v>12.902906443315221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>AVERAGE(A17:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V21" si="2">STDEV(A17:T17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f>AVERAGE(A18:E18)</f>
+        <v>1.2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>1.3038404810405297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>35</v>
+      </c>
+      <c r="U19">
+        <f>AVERAGE(A19:J19)</f>
+        <v>21.7</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>15.470760952339884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>23</v>
+      </c>
+      <c r="U20">
+        <f>AVERAGE(A20:O20)</f>
+        <v>13.266666666666667</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>9.9100718367489051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>30</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>17</v>
+      </c>
+      <c r="Q21">
+        <v>28</v>
+      </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>30</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <f>AVERAGE(A21:T21)</f>
+        <v>17.8</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>8.8887865491184712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>AVERAGE(A25:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V29" si="3">STDEV(A25:T25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>AVERAGE(A26:E26)</f>
+        <v>2.6</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>3.2093613071762426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="U27">
+        <f>AVERAGE(A27:J27)</f>
+        <v>16</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>14.712050993809275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <v>59</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+      <c r="U28">
+        <f>AVERAGE(A28:O28)</f>
+        <v>17.866666666666667</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>13.195598111635924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <f>AVERAGE(A29:T29)</f>
+        <v>9.9</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>6.471801180994035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="U38" s="6">
+        <f>AVERAGE(A38:T38)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="V38" s="6">
+        <f>STDEV(A38:T38)</f>
+        <v>2.0816659994661331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="U39" s="6">
+        <f>AVERAGE(A39:T39)</f>
+        <v>6.2</v>
+      </c>
+      <c r="V39" s="6">
+        <f>STDEV(A39:T39)</f>
+        <v>4.4384682042344297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>25</v>
+      </c>
+      <c r="H40">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="U40" s="6">
+        <f>AVERAGE(A40:T40)</f>
+        <v>15.7</v>
+      </c>
+      <c r="V40" s="6">
+        <f>STDEV(A40:T40)</f>
+        <v>6.8158312446506146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>24</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>11</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>11</v>
+      </c>
+      <c r="O41">
+        <v>11</v>
+      </c>
+      <c r="U41" s="6">
+        <f>AVERAGE(A41:T41)</f>
+        <v>10.066666666666666</v>
+      </c>
+      <c r="V41" s="6">
+        <f>STDEV(A41:T41)</f>
+        <v>5.2842983946603095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>23</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>11</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>15</v>
+      </c>
+      <c r="P42">
+        <v>16</v>
+      </c>
+      <c r="Q42">
+        <v>15</v>
+      </c>
+      <c r="R42">
+        <v>12</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>15</v>
+      </c>
+      <c r="U42" s="6">
+        <f>AVERAGE(A42:T42)</f>
+        <v>12.3</v>
+      </c>
+      <c r="V42" s="6">
+        <f>STDEV(A42:T42)</f>
+        <v>4.9640815125416591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G159" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test results/results.xlsx
+++ b/Test results/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10639193_polimi_it/Documents/papers/2020 distributed decision systems/tests/DaaSinFogComputing/Test results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0CD4D-014A-984D-BA63-4DE34C1E9C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="6_{A99C741B-629A-1949-B398-3DD5D337BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702CAB9B-3C90-3146-9D4E-D475B8187B89}"/>
   <bookViews>
     <workbookView xWindow="-10680" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="8" xr2:uid="{C926F829-F91A-A246-AC1D-5E6E00D4B87F}"/>
   </bookViews>
@@ -24,16 +24,31 @@
     <sheet name="Comparison local vs global" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'BoxPlot number of actions'!$B$2:$KO$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BoxPlot number of actions'!$B$3:$KO$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'BoxPlot number of actions'!$B$4:$KO$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'BoxPlot number of actions'!$B$5:$KO$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BoxPlot number of actions'!$B$6:$KO$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'BoxPlot number of actions'!$B$2:$CW$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'BoxPlot number of actions'!$B$3:$CW$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'BoxPlot number of actions'!$B$4:$CW$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'BoxPlot number of actions'!$B$5:$CW$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'BoxPlot number of actions'!$B$6:$CW$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Incremental '!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Incremental '!$C$5:$C$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Incremental '!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Incremental '!$C$5:$C$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Incremental '!$F$5:$F$14</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Incremental '!$I$5:$I$14</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Incremental '!$L$5:$L$14</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'BoxPlot number of actions'!$B$2:$CW$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'BoxPlot number of actions'!$B$3:$CW$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'BoxPlot number of actions'!$B$4:$CW$4</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'BoxPlot number of actions'!$B$5:$CW$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'BoxPlot number of actions'!$B$6:$CW$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Incremental '!$F$5:$F$14</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'BoxPlot number of actions'!$B$2:$KO$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'BoxPlot number of actions'!$B$3:$KO$3</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'BoxPlot number of actions'!$B$4:$KO$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'BoxPlot number of actions'!$B$5:$KO$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'BoxPlot number of actions'!$B$6:$KO$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Incremental '!$I$5:$I$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Incremental '!$L$5:$L$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Incremental '!$A$5:$A$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Incremental '!$C$5:$C$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Incremental '!$F$5:$F$14</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Incremental '!$I$5:$I$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Incremental '!$L$5:$L$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>batch</t>
   </si>
@@ -97,9 +112,6 @@
   </si>
   <si>
     <t>average per number of nodes</t>
-  </si>
-  <si>
-    <t>avg</t>
   </si>
   <si>
     <t>Number of Full nodes</t>
@@ -135,19 +147,10 @@
     <t>Global decision</t>
   </si>
   <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>batch 1</t>
   </si>
   <si>
     <t>batch 2</t>
-  </si>
-  <si>
-    <t>std dev</t>
-  </si>
-  <si>
-    <t>variance</t>
   </si>
   <si>
     <t>batch 3</t>
@@ -163,6 +166,21 @@
   </si>
   <si>
     <t>Local decision:</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>number of nodes</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Variance</t>
   </si>
 </sst>
 </file>
@@ -219,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -289,11 +307,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -307,6 +343,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2565,6 +2607,475 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Incremental Addition of full nodes - Average</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Incremental '!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Incremental '!$L$5:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8EC-4C4E-A95C-8516C987A3A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="440780176"/>
+        <c:axId val="440781856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440780176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440781856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440781856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of adaptation actions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440780176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Average number of adaptation actions per configuration</a:t>
             </a:r>
           </a:p>
@@ -3218,7 +3729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3756,7 +4267,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4312,27 +4823,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4542,27 +5053,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5087,6 +5598,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6597,6 +7148,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7111,7 +8165,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7626,7 +8680,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8129,7 +9183,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8632,7 +9686,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9247,6 +10301,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234949</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>226482</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E411E6FF-AE18-34F5-2390-1EF84A5225EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9845,7 +10935,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -9875,7 +10965,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -14330,51 +15420,57 @@
   <dimension ref="A3:AA18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="313" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.83203125" customWidth="1"/>
     <col min="15" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="3" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -14392,25 +15488,27 @@
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>34</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>19</v>
       </c>
-      <c r="I5">
+      <c r="G5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="10">
         <v>2</v>
       </c>
       <c r="L5">
@@ -14422,31 +15520,31 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>35</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>28</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>7</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>5</v>
       </c>
       <c r="L6">
@@ -14470,25 +15568,27 @@
       <c r="A7">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>31</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="10"/>
+      <c r="F7" s="9">
         <v>52</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="13"/>
+      <c r="H7" s="10">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>16</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="13">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="10">
         <v>7</v>
       </c>
       <c r="L7">
@@ -14512,22 +15612,25 @@
       <c r="A8">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>39</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="13">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9">
         <v>28</v>
       </c>
-      <c r="I8">
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9">
         <v>22</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="13">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="10">
         <v>8</v>
       </c>
       <c r="L8">
@@ -14551,22 +15654,25 @@
       <c r="A9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>36</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="13">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="10"/>
+      <c r="F9" s="9">
         <v>25</v>
       </c>
-      <c r="I9">
+      <c r="G9" s="13"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9">
         <v>16</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="13">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="10">
         <v>7</v>
       </c>
       <c r="L9">
@@ -14578,22 +15684,25 @@
       <c r="A10">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>33</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="13">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="10"/>
+      <c r="F10" s="9">
         <v>17</v>
       </c>
-      <c r="I10">
+      <c r="G10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9">
         <v>70</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="13">
         <v>10</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="10">
         <v>45</v>
       </c>
       <c r="L10">
@@ -14605,22 +15714,25 @@
       <c r="A11">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="10"/>
+      <c r="F11" s="9">
         <v>46</v>
       </c>
-      <c r="I11">
+      <c r="G11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9">
         <v>71</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="13">
         <v>6</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="10">
         <v>63</v>
       </c>
       <c r="L11">
@@ -14632,18 +15744,23 @@
       <c r="A12">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>21</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="10"/>
+      <c r="F12" s="9">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9">
         <v>9</v>
       </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10"/>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -14653,39 +15770,49 @@
       <c r="A13">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="10"/>
+      <c r="F13" s="9">
         <v>8</v>
       </c>
-      <c r="I13">
+      <c r="G13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9">
         <v>14</v>
       </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="10"/>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>15.666666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="12"/>
+      <c r="F14" s="11">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="G14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11">
         <v>7</v>
       </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12"/>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>15.333333333333334</v>
@@ -14693,7 +15820,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <f>AVERAGE(C5:C14)</f>
@@ -14710,7 +15837,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <f>STDEV(C5:C15)</f>
@@ -14727,7 +15854,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <f>_xlfn.VAR.P(C5:C14)</f>
@@ -14744,7 +15871,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -14785,7 +15912,7 @@
         <v>4</v>
       </c>
       <c r="GT1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:301" x14ac:dyDescent="0.2">
@@ -20860,7 +21987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D890983F-CDEF-7440-9083-3C6F46E5832B}">
   <dimension ref="A1:AA159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -20874,7 +22001,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1">
         <v>3</v>
@@ -21103,10 +22230,10 @@
     </row>
     <row r="9" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -21128,10 +22255,10 @@
         <v>0</v>
       </c>
       <c r="Z10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -21159,11 +22286,11 @@
         <v>3.2863353450309969</v>
       </c>
       <c r="Z11" s="9">
-        <f>AVERAGE(U2,U10,U17,U25)</f>
+        <f t="shared" ref="Z11:AA15" si="2">AVERAGE(U2,U10,U17,U25)</f>
         <v>0</v>
       </c>
       <c r="AA11" s="10">
-        <f>AVERAGE(V2,V10,V17,V25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21207,11 +22334,11 @@
         <v>10.764654094664529</v>
       </c>
       <c r="Z12" s="9">
-        <f>AVERAGE(U3,U11,U18,U26)</f>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="AA12" s="10">
-        <f>AVERAGE(V3,V11,V18,V26)</f>
+        <f t="shared" si="2"/>
         <v>2.6787532701676051</v>
       </c>
     </row>
@@ -21270,11 +22397,11 @@
         <v>19.704483415371911</v>
       </c>
       <c r="Z13" s="9">
-        <f>AVERAGE(U4,U12,U19,U27)</f>
+        <f t="shared" si="2"/>
         <v>17.975000000000001</v>
       </c>
       <c r="AA13" s="10">
-        <f>AVERAGE(V4,V12,V19,V27)</f>
+        <f t="shared" si="2"/>
         <v>13.281556788193761</v>
       </c>
     </row>
@@ -21348,27 +22475,27 @@
         <v>17.882658462438144</v>
       </c>
       <c r="Z14" s="9">
-        <f>AVERAGE(U5,U13,U20,U28)</f>
+        <f t="shared" si="2"/>
         <v>19.133333333333333</v>
       </c>
       <c r="AA14" s="10">
-        <f>AVERAGE(V5,V13,V20,V28)</f>
+        <f t="shared" si="2"/>
         <v>14.171104670267828</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Z15" s="11">
-        <f>AVERAGE(U6,U14,U21,U29)</f>
+        <f t="shared" si="2"/>
         <v>21.587500000000002</v>
       </c>
       <c r="AA15" s="12">
-        <f>AVERAGE(V6,V14,V21,V29)</f>
+        <f t="shared" si="2"/>
         <v>12.902906443315221</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -21386,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" ref="V17:V21" si="2">STDEV(A17:T17)</f>
+        <f t="shared" ref="V17:V21" si="3">STDEV(A17:T17)</f>
         <v>0</v>
       </c>
     </row>
@@ -21411,7 +22538,7 @@
         <v>1.2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3038404810405297</v>
       </c>
     </row>
@@ -21451,7 +22578,7 @@
         <v>21.7</v>
       </c>
       <c r="V19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.470760952339884</v>
       </c>
     </row>
@@ -21506,7 +22633,7 @@
         <v>13.266666666666667</v>
       </c>
       <c r="V20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9100718367489051</v>
       </c>
     </row>
@@ -21576,13 +22703,13 @@
         <v>17.8</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8887865491184712</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -21600,7 +22727,7 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="V25:V29" si="3">STDEV(A25:T25)</f>
+        <f t="shared" ref="V25:V29" si="4">STDEV(A25:T25)</f>
         <v>0</v>
       </c>
     </row>
@@ -21625,7 +22752,7 @@
         <v>2.6</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2093613071762426</v>
       </c>
     </row>
@@ -21665,7 +22792,7 @@
         <v>16</v>
       </c>
       <c r="V27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.712050993809275</v>
       </c>
     </row>
@@ -21720,7 +22847,7 @@
         <v>17.866666666666667</v>
       </c>
       <c r="V28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.195598111635924</v>
       </c>
     </row>
@@ -21790,7 +22917,7 @@
         <v>9.9</v>
       </c>
       <c r="V29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.471801180994035</v>
       </c>
     </row>
@@ -21808,10 +22935,10 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
